--- a/Data Processing/Data Submissions (Responses).xlsx
+++ b/Data Processing/Data Submissions (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="108">
   <si>
     <t>Timestamp</t>
   </si>
@@ -100,20 +100,251 @@
     <t>Your Name</t>
   </si>
   <si>
-    <t>hi</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>bye</t>
+    <t>Proteome of the Developing Murine Lens Through Mass Spectrometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://iovs.arvojournals.org/article.aspx?articleid=2670138</t>
+  </si>
+  <si>
+    <t>PXD006381</t>
+  </si>
+  <si>
+    <t>Mus musculus (mouse)</t>
+  </si>
+  <si>
+    <t>Lens of camera-type eye</t>
+  </si>
+  <si>
+    <t>WT</t>
+  </si>
+  <si>
+    <t>Time points: Embryonic day 15 (E15) and 18 (E18) and postnatal day 0 (P0), 3 (P3), 6 (P6), and 9 (P9)</t>
+  </si>
+  <si>
+    <t>3 biological replicates for each subgroup (timepoint)</t>
+  </si>
+  <si>
+    <t>Total: 18 (3*6 = biological replicates x nTimepoint)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>https://arvo.silverchair-cdn.com/arvo/content_public/journal/iovs/936670/iovs-58-13-55_s17.xlsx?Expires=1694527471&amp;Signature=mHlI~HEy-FgNjqxvb94lFXK~l~HNZu~3jqskFnU~EYhunLtPRQBIvMmRPoXClW6m-gQDd4hjZ2XtUuEwIsyDgOKhoRN0odhGEgeFMbA5mtIAVwYy3XZ~Xkv5NfoFbU7RWjuwOOk4JgGc3TWGBVtsAZWfIIFIYwqt65MkdOQNNxi-xffZN3-ft4710Zavg6D6YhcHe-po3WVQ1iWPMOJqHESL~cmFOPgB40qAD1PZq7WInSAKoH7n-vodUu-KfsJLHxWwrAg55fGqUc0yodOU1foOHgtZjWl15-AgZKdbAks2oONvcJbGYRV0UBal3L-IiTHEdGYTgAcx52ygO9mcLg__&amp;Key-Pair-Id=APKAIE5G5CRDK6RD3PGA</t>
+  </si>
+  <si>
+    <t>Protein Expression</t>
+  </si>
+  <si>
+    <t>Labeled</t>
+  </si>
+  <si>
+    <t>TMT</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>ProteomeDiscoverer</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>6076 x 18</t>
+  </si>
+  <si>
+    <t>https://arvo.silverchair-cdn.com/arvo/content_public/journal/iovs/936670/iovs-58-13-55_s01.xlsx?Expires=1694031584&amp;Signature=SUvzQSU~dLy4kqmfCuSnLGjQ8Zt3tkeO7ycfMXP3ZDy69blYWJ6F0vQHiuXABG95NBlkmYCAq8QwV-INWSlL5HadM2N0m4Y1oXEDT8EX4rGLUazyDQRGSiOjIA~FTBFAcv70stq5Rzch7SFdDuPuoejE5XC5pKVEVET0ZsHi5dpGySWBoXnbVDa2WgQupcW4GcvuDV7Ts1JBGq0lw28Bbkqd7Hl0Y0E5MayIi0VKVTFjctGEexOHaZ9~fykVpk3tgo3oAJs6UzRJQQZKZTp4knFd8Oe2YTvNifY4C7xuqKhvMb~vxcP8QR3myiBDDpkXwgkevItqF5yXF-fIqZpSwg__&amp;Key-Pair-Id=APKAIE5G5CRDK6RD3PGA</t>
+  </si>
+  <si>
+    <t>trypsin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proteome-centric cross-omics characterization and integrated network analyses of triple-negative breast cancer </t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2211124722001875?via%3Dihub</t>
+  </si>
+  <si>
+    <t>IPX0003222000</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>Breast tumor and non-cancerous adjacent tissue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUSCCTNBC cohort </t>
+  </si>
+  <si>
+    <t>Breast cancer and non-cancerous tissue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90 FUSCCTNBC cohort </t>
+  </si>
+  <si>
+    <t>Total: 90</t>
+  </si>
+  <si>
+    <t>https://ars.els-cdn.com/content/image/1-s2.0-S2211124722001875-mmc2.xlsx</t>
+  </si>
+  <si>
+    <t>Phosphorylation</t>
+  </si>
+  <si>
+    <t>Label free</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>MaxQuant</t>
+  </si>
+  <si>
+    <t>https://ars.els-cdn.com/content/image/1-s2.0-S2211124722001875-mmc3.xlsx</t>
+  </si>
+  <si>
+    <t>20069 x 86, 70</t>
+  </si>
+  <si>
+    <t>7531 x 82, 66</t>
+  </si>
+  <si>
+    <t>Trypsin</t>
+  </si>
+  <si>
+    <t>Identification of Salivary Biomarkers for Oral Cancer Detection with Untargeted and Targeted Quantitative Proteomics Approaches</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6731081/</t>
+  </si>
+  <si>
+    <t>PXD008655</t>
+  </si>
+  <si>
+    <t>Saliva</t>
+  </si>
+  <si>
+    <t>HC, OPMD, OSCC cohorts</t>
+  </si>
+  <si>
+    <t>healthy, potentially malignant, oral squamous cell carcinoma</t>
+  </si>
+  <si>
+    <t>115 HC, 116 OPMD, 117 OSCC</t>
+  </si>
+  <si>
+    <t>Total: 348</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6731081/bin/152475_0_supp_321761_pqpfdb.xlsx</t>
+  </si>
+  <si>
+    <t>Protein expression</t>
+  </si>
+  <si>
+    <t>iTRAQ</t>
+  </si>
+  <si>
+    <t>Proteome Discoverer</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6731081/bin/152475_0_supp_321762_pqpfdb.xlsx</t>
+  </si>
+  <si>
+    <t>45062 x 348</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>1838 x 348</t>
+  </si>
+  <si>
+    <t>Inhaled multi-walled carbon nanotubes differently modulate global gene and protein expression in rat lungs</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/doi/full/10.1080/17435390.2020.1851418</t>
+  </si>
+  <si>
+    <t>PXD029842</t>
+  </si>
+  <si>
+    <t>Rattus norvegicus (rat)</t>
+  </si>
+  <si>
+    <t>Lung tissue</t>
+  </si>
+  <si>
+    <t>Multi-walled carbon nanotubes inhaled: NM-401, NM-403</t>
+  </si>
+  <si>
+    <t>Recovery Period (RP): 3/30/90/180 days, Dosage: High, Low</t>
+  </si>
+  <si>
+    <t>6 rats for each group</t>
+  </si>
+  <si>
+    <t>Total: 48 (6 x nRP x nDosage = 6 x 4 x 2)</t>
+  </si>
+  <si>
+    <t>Label Free</t>
+  </si>
+  <si>
+    <t>1175 x 48</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/doi/suppl/10.1080/17435390.2020.1851418?scroll=top&amp;role=tab#:~:text=Share-,Download,-figshare -Supplementary file 8</t>
+  </si>
+  <si>
+    <t>"Mass Spectrometry-Based Proteomics Analysis of Human Substantia Nigra From Parkinson's Disease Patients Identifies Multiple Pathways Potentially Involved in the Disease "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mcponline.org/article/S1535-9476(22)00260-2/fulltext </t>
+  </si>
+  <si>
+    <t>Substantia Nigra</t>
+  </si>
+  <si>
+    <t>Parkinson's vs healthy</t>
+  </si>
+  <si>
+    <t>Main and replication experiment; FDR calculation with and without permutations in groups</t>
+  </si>
+  <si>
+    <t>15 for each group</t>
+  </si>
+  <si>
+    <t>15*2 = 30 samples total</t>
+  </si>
+  <si>
+    <t>http://efaidnbmnnnibpcajpcglclefindmkaj/https://www.mcponline.org/cms/10.1016/j.mcpro.2022.100452/attachment/bd62a816-b040-43ea-b97e-410198cdacb7/mmc8.pdf</t>
+  </si>
+  <si>
+    <t>"Protein Expression "</t>
+  </si>
+  <si>
+    <t>https://www.mcponline.org/cms/10.1016/j.mcpro.2022.100280/attachment/439cf0fb-1eac-48a2-b7ae-ab88bb45fc83/mmc6.xlsx -Given in 2nd coloumn of supplementary data S1</t>
+  </si>
+  <si>
+    <t>134787 x 66</t>
+  </si>
+  <si>
+    <t>9743 x 30</t>
+  </si>
+  <si>
+    <t>Given in 1st column of supplementary data S1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -124,6 +355,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,12 +379,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -460,19 +708,418 @@
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="2">
+        <v>45208.80736532407</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>30</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2.9332127E7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="2" t="s">
-        <v>31</v>
+      <c r="A3" s="2">
+        <v>45208.81954616898</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3.5235781E7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>45208.82131158565</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3.1253657E7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>45208.812024513885</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3.3332178E7</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>45208.81447565972</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3.6423813E7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="M2"/>
+    <hyperlink r:id="rId3" ref="X2"/>
+    <hyperlink r:id="rId4" ref="C3"/>
+    <hyperlink r:id="rId5" ref="M3"/>
+    <hyperlink r:id="rId6" ref="T3"/>
+    <hyperlink r:id="rId7" ref="X3"/>
+    <hyperlink r:id="rId8" ref="C4"/>
+    <hyperlink r:id="rId9" ref="M4"/>
+    <hyperlink r:id="rId10" ref="T4"/>
+    <hyperlink r:id="rId11" ref="C5"/>
+    <hyperlink r:id="rId12" ref="C6"/>
+    <hyperlink r:id="rId13" ref="M6"/>
+  </hyperlinks>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
--- a/Data Processing/Data Submissions (Responses).xlsx
+++ b/Data Processing/Data Submissions (Responses).xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hegdefamily/Proteomic-Repository/Data Processing/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4993BE29-8E22-424E-B140-B1EA9B06BA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="114">
   <si>
     <t>Timestamp</t>
   </si>
@@ -34,6 +43,9 @@
     <t>Tissue</t>
   </si>
   <si>
+    <t>Disease</t>
+  </si>
+  <si>
     <t>Groups</t>
   </si>
   <si>
@@ -148,15 +160,15 @@
     <t>ProteomeDiscoverer</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>6076 x 18</t>
   </si>
   <si>
-    <t>https://arvo.silverchair-cdn.com/arvo/content_public/journal/iovs/936670/iovs-58-13-55_s01.xlsx?Expires=1694031584&amp;Signature=SUvzQSU~dLy4kqmfCuSnLGjQ8Zt3tkeO7ycfMXP3ZDy69blYWJ6F0vQHiuXABG95NBlkmYCAq8QwV-INWSlL5HadM2N0m4Y1oXEDT8EX4rGLUazyDQRGSiOjIA~FTBFAcv70stq5Rzch7SFdDuPuoejE5XC5pKVEVET0ZsHi5dpGySWBoXnbVDa2WgQupcW4GcvuDV7Ts1JBGq0lw28Bbkqd7Hl0Y0E5MayIi0VKVTFjctGEexOHaZ9~fykVpk3tgo3oAJs6UzRJQQZKZTp4knFd8Oe2YTvNifY4C7xuqKhvMb~vxcP8QR3myiBDDpkXwgkevItqF5yXF-fIqZpSwg__&amp;Key-Pair-Id=APKAIE5G5CRDK6RD3PGA</t>
-  </si>
-  <si>
     <t>trypsin</t>
   </si>
   <si>
@@ -175,6 +187,9 @@
     <t>Breast tumor and non-cancerous adjacent tissue</t>
   </si>
   <si>
+    <t>TNBC</t>
+  </si>
+  <si>
     <t xml:space="preserve">FUSCCTNBC cohort </t>
   </si>
   <si>
@@ -196,21 +211,12 @@
     <t>Label free</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>MaxQuant</t>
   </si>
   <si>
     <t>https://ars.els-cdn.com/content/image/1-s2.0-S2211124722001875-mmc3.xlsx</t>
   </si>
   <si>
-    <t>20069 x 86, 70</t>
-  </si>
-  <si>
-    <t>7531 x 82, 66</t>
-  </si>
-  <si>
     <t>Trypsin</t>
   </si>
   <si>
@@ -226,6 +232,9 @@
     <t>Saliva</t>
   </si>
   <si>
+    <t>Oral Cancer</t>
+  </si>
+  <si>
     <t>HC, OPMD, OSCC cohorts</t>
   </si>
   <si>
@@ -277,6 +286,9 @@
     <t>Lung tissue</t>
   </si>
   <si>
+    <t>Carbon Nanotube Inhalation</t>
+  </si>
+  <si>
     <t>Multi-walled carbon nanotubes inhaled: NM-401, NM-403</t>
   </si>
   <si>
@@ -298,7 +310,7 @@
     <t>https://www.tandfonline.com/doi/suppl/10.1080/17435390.2020.1851418?scroll=top&amp;role=tab#:~:text=Share-,Download,-figshare -Supplementary file 8</t>
   </si>
   <si>
-    <t>"Mass Spectrometry-Based Proteomics Analysis of Human Substantia Nigra From Parkinson's Disease Patients Identifies Multiple Pathways Potentially Involved in the Disease "</t>
+    <t>Mass Spectrometry-Based Proteomics Analysis of Human Substantia Nigra From Parkinson's Disease Patients Identifies Multiple Pathways Potentially Involved in the Disease</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mcponline.org/article/S1535-9476(22)00260-2/fulltext </t>
@@ -307,6 +319,9 @@
     <t>Substantia Nigra</t>
   </si>
   <si>
+    <t>Parkinson's Disease</t>
+  </si>
+  <si>
     <t>Parkinson's vs healthy</t>
   </si>
   <si>
@@ -335,34 +350,62 @@
   </si>
   <si>
     <t>Given in 1st column of supplementary data S1</t>
+  </si>
+  <si>
+    <t>Cataractogenesis</t>
+  </si>
+  <si>
+    <t>20069 x 86</t>
+  </si>
+  <si>
+    <t>7531 x 82</t>
+  </si>
+  <si>
+    <t>https://iovs.arvojournals.org/article.aspx?articleid=2670138</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -370,46 +413,50 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -599,26 +646,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="35" width="18.88"/>
+    <col min="1" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="36" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,420 +758,486 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
-        <v>45208.80736532407</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="4" t="s">
+        <v>45208.807365324072</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="3">
-        <v>2.9332127E7</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="1">
+        <v>29332127</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="S2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" s="4" t="s">
+      <c r="T2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="X2" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="Y2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>45208.81954616898</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="4" t="s">
+        <v>45208.819546168983</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="3">
-        <v>3.5235781E7</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="D3" s="1">
+        <v>35235781</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="4" t="s">
+      <c r="K3" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="L3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="N3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="O3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="3" t="s">
+      <c r="P3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="T3" s="4" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>63</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="U3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="V3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="W3" s="3" t="s">
+      <c r="V3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="X3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AC3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>45208.821311585649</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AB3" s="3" t="s">
-        <v>61</v>
+      <c r="C4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="1">
+        <v>31253657</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>45208.82131158565</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="3">
-        <v>3.1253657E7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5">
+    <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>45208.812024513885</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="3">
-        <v>3.3332178E7</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="1">
+        <v>33332178</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="3" t="s">
+      <c r="L5" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="V5" s="3" t="s">
+      <c r="M5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>45208.814475659718</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="1">
+        <v>36423813</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>45208.81447565972</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="3">
-        <v>3.6423813E7</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="W6" s="3" t="s">
+      <c r="T6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="V6" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="Y6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>61</v>
+      <c r="W6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="M2"/>
-    <hyperlink r:id="rId3" ref="X2"/>
-    <hyperlink r:id="rId4" ref="C3"/>
-    <hyperlink r:id="rId5" ref="M3"/>
-    <hyperlink r:id="rId6" ref="T3"/>
-    <hyperlink r:id="rId7" ref="X3"/>
-    <hyperlink r:id="rId8" ref="C4"/>
-    <hyperlink r:id="rId9" ref="M4"/>
-    <hyperlink r:id="rId10" ref="T4"/>
-    <hyperlink r:id="rId11" ref="C5"/>
-    <hyperlink r:id="rId12" ref="C6"/>
-    <hyperlink r:id="rId13" ref="M6"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="Y2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="N3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="U3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="Y3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C4" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="N4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="U4" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C5" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C6" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="N6" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
   </hyperlinks>
-  <drawing r:id="rId14"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data Processing/Data Submissions (Responses).xlsx
+++ b/Data Processing/Data Submissions (Responses).xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hegdefamily/Proteomic-Repository/Data Processing/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4993BE29-8E22-424E-B140-B1EA9B06BA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="133">
   <si>
     <t>Timestamp</t>
   </si>
@@ -127,6 +118,9 @@
     <t>Lens of camera-type eye</t>
   </si>
   <si>
+    <t>Cataractogenesis</t>
+  </si>
+  <si>
     <t>WT</t>
   </si>
   <si>
@@ -169,6 +163,9 @@
     <t>6076 x 18</t>
   </si>
   <si>
+    <t>https://iovs.arvojournals.org/article.aspx?articleid=2670138</t>
+  </si>
+  <si>
     <t>trypsin</t>
   </si>
   <si>
@@ -217,6 +214,12 @@
     <t>https://ars.els-cdn.com/content/image/1-s2.0-S2211124722001875-mmc3.xlsx</t>
   </si>
   <si>
+    <t>20069 x 86</t>
+  </si>
+  <si>
+    <t>7531 x 82</t>
+  </si>
+  <si>
     <t>Trypsin</t>
   </si>
   <si>
@@ -307,7 +310,17 @@
     <t>1175 x 48</t>
   </si>
   <si>
-    <t>https://www.tandfonline.com/doi/suppl/10.1080/17435390.2020.1851418?scroll=top&amp;role=tab#:~:text=Share-,Download,-figshare -Supplementary file 8</t>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.tandfonline.com/doi/suppl/10.1080/17435390.2020.1851418?scroll=top&amp;role=tab#:</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>~:text=Share-,Download,-figshare -Supplementary file 8</t>
+    </r>
   </si>
   <si>
     <t>Mass Spectrometry-Based Proteomics Analysis of Human Substantia Nigra From Parkinson's Disease Patients Identifies Multiple Pathways Potentially Involved in the Disease</t>
@@ -352,60 +365,89 @@
     <t>Given in 1st column of supplementary data S1</t>
   </si>
   <si>
-    <t>Cataractogenesis</t>
-  </si>
-  <si>
-    <t>20069 x 86</t>
-  </si>
-  <si>
-    <t>7531 x 82</t>
-  </si>
-  <si>
-    <t>https://iovs.arvojournals.org/article.aspx?articleid=2670138</t>
+    <t>Proteomics Pipeline for Biomarker Discovery of Laser Capture Microdissected Breast Cancer Tissue</t>
+  </si>
+  <si>
+    <t>https://rdcu.be/dLRDK</t>
+  </si>
+  <si>
+    <t>Breast Cancer Tissue</t>
+  </si>
+  <si>
+    <t>Breast Cancer</t>
+  </si>
+  <si>
+    <t>Estrogen positive and estrogen negative</t>
+  </si>
+  <si>
+    <t>Positive/Negative Estrogen</t>
+  </si>
+  <si>
+    <t>5 ER+, 4 ER-</t>
+  </si>
+  <si>
+    <t>Total: 9</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3428526/bin/10911_2012_9252_MOESM10_ESM.xlsx</t>
+  </si>
+  <si>
+    <t>https://static-content.springer.com/esm/art%3A10.1007%2Fs10911-012-9252-6/MediaObjects/10911_2012_9252_MOESM5_ESM.xlsx</t>
+  </si>
+  <si>
+    <t>13532 x 9</t>
+  </si>
+  <si>
+    <t>Riya Hegde</t>
+  </si>
+  <si>
+    <t>Human Testis Phosphoproteome Reveals Kinases as Potential Targets in Spermatogenesis and Testicular Cancer</t>
+  </si>
+  <si>
+    <t>https://www.mcponline.org/article/S1535-9476(20)31580-2/fulltext#supplementaryMaterial</t>
+  </si>
+  <si>
+    <t>PXD010246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testicular </t>
+  </si>
+  <si>
+    <t>Total: 3</t>
+  </si>
+  <si>
+    <t>https://www.mcponline.org/cms/10.1074/mcp.RA118.001278/attachment/c562a9d9-00e3-48ad-8000-4fdeaa0b6743/mmc1.zip</t>
+  </si>
+  <si>
+    <t>8189 x 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -413,50 +455,49 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -646,31 +687,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z2" sqref="Z2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="36" width="18.83203125" customWidth="1"/>
+    <col customWidth="1" min="1" max="2" width="18.88"/>
+    <col customWidth="1" min="3" max="3" width="19.13"/>
+    <col customWidth="1" min="4" max="36" width="18.88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,7 +730,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -762,482 +800,673 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>45208.807365324072</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2">
+      <c r="A2" s="3">
+        <v>45208.80736532407</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1">
-        <v>29332127</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="4">
+        <v>2.9332127E7</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>45208.81954616898</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3.5235781E7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>45208.82131158565</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.1253657E7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>45208.812024513885</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3.3332178E7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>45208.81447565972</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3.6423813E7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="V6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>45518.45112170139</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2.2644111E7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="N7" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>46</v>
+      <c r="P7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>45208.819546168983</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="1">
-        <v>35235781</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="1" t="s">
+    <row r="8">
+      <c r="A8" s="3">
+        <v>45518.61344295139</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3.0683686E7</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U3" s="3" t="s">
+      <c r="G8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB3" s="1" t="s">
+      <c r="Q8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AC3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>45208.821311585649</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="1">
-        <v>31253657</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="T8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>45208.812024513885</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="1">
-        <v>33332178</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>45208.814475659718</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="1">
-        <v>36423813</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>46</v>
+      <c r="AC8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="N2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="Y2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="N3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="U3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="Y3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C4" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="N4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="U4" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C5" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C6" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="N6" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="N2"/>
+    <hyperlink r:id="rId3" ref="Y2"/>
+    <hyperlink r:id="rId4" ref="C3"/>
+    <hyperlink r:id="rId5" ref="N3"/>
+    <hyperlink r:id="rId6" ref="U3"/>
+    <hyperlink r:id="rId7" ref="Y3"/>
+    <hyperlink r:id="rId8" ref="C4"/>
+    <hyperlink r:id="rId9" ref="N4"/>
+    <hyperlink r:id="rId10" ref="U4"/>
+    <hyperlink r:id="rId11" ref="C5"/>
+    <hyperlink r:id="rId12" location=":" ref="Y5"/>
+    <hyperlink r:id="rId13" ref="C6"/>
+    <hyperlink r:id="rId14" ref="N6"/>
+    <hyperlink r:id="rId15" ref="C7"/>
+    <hyperlink r:id="rId16" ref="N7"/>
+    <hyperlink r:id="rId17" ref="U7"/>
+    <hyperlink r:id="rId18" location="supplementaryMaterial" ref="C8"/>
+    <hyperlink r:id="rId19" ref="N8"/>
+    <hyperlink r:id="rId20" ref="U8"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId21"/>
 </worksheet>
 </file>